--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42991,6 +42991,41 @@
         <v>3391900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>522500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43026,6 +43026,41 @@
         <v>522500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>248200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43061,6 +43061,41 @@
         <v>248200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>206500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43096,6 +43096,41 @@
         <v>206500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>229700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43131,6 +43131,41 @@
         <v>229700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1340300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43166,6 +43166,41 @@
         <v>1340300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>359000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43201,6 +43201,41 @@
         <v>359000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>432100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43236,6 +43236,41 @@
         <v>432100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>640000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43271,6 +43271,41 @@
         <v>640000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>248900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,41 @@
         <v>248900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>507000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43341,6 +43341,41 @@
         <v>507000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>207200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43376,6 +43376,41 @@
         <v>207200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>484000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,76 @@
         <v>484000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1746100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,76 @@
         <v>1746100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1547700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>945600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43551,6 +43551,41 @@
         <v>945600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>354200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43586,6 +43586,41 @@
         <v>354200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>301000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43621,6 +43621,41 @@
         <v>301000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>221200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,41 @@
         <v>221200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2519200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43691,6 +43691,76 @@
         <v>2519200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>751700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43761,6 +43761,41 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>665200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43796,6 +43796,41 @@
         <v>665200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2905700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75016,6 +75016,41 @@
         <v>2905700</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>844000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75051,6 +75051,41 @@
         <v>844000</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>918800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75086,6 +75086,41 @@
         <v>918800</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>400300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75121,6 +75121,41 @@
         <v>400300</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>1428500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75156,6 +75156,41 @@
         <v>1428500</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>467700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75191,6 +75191,41 @@
         <v>467700</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>467100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75226,6 +75226,41 @@
         <v>467100</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75261,6 +75261,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>419200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75296,6 +75296,41 @@
         <v>419200</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>165100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75331,6 +75331,41 @@
         <v>165100</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>281100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75366,6 +75366,41 @@
         <v>281100</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>33700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75401,6 +75401,41 @@
         <v>33700</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>72400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75436,6 +75436,41 @@
         <v>72400</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>180000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75471,6 +75471,41 @@
         <v>180000</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>393700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7200.xlsx
+++ b/data/7200.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75506,6 +75506,41 @@
         <v>393700</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>TEKSENG</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>245800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
